--- a/stats.xlsx
+++ b/stats.xlsx
@@ -5,23 +5,46 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konev\PycharmProjects\skbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCABE535-D464-4C69-BA00-7F35C4520C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F668519-0ADA-46B1-945D-580031CE3AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="2055" windowWidth="21600" windowHeight="9975" xr2:uid="{441C1C9C-D5AF-42BB-9928-7EC9F78C25F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{441C1C9C-D5AF-42BB-9928-7EC9F78C25F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>referral_id</t>
+  </si>
+  <si>
+    <t>referral_username</t>
+  </si>
+  <si>
+    <t>Приглашенно пользователей</t>
+  </si>
+  <si>
+    <t>Всего было заработано</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,12 +395,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B420831-7266-49E3-9672-A46DC22A114C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>